--- a/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
@@ -1048,6 +1048,9 @@
       <c r="G2" t="str">
         <v>0198615201510555510101515201020151055510515101015101516615101055103050100510116156105515202015101010205551010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,549 +446,259 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
       </c>
       <c r="F2" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>324_小手球单瓣_Spiraea flower_undefined_1bunch</v>
       </c>
       <c r="F3" t="str">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+        <v>866_小手球重瓣_undefined_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
       <c r="F5" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2</v>
-      </c>
-      <c r="C6" t="str">
-        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
       <c r="F6" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="str">
-        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
       <c r="F7" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>492_细米花_undefined_undefined_1bunch</v>
+        <v>741_袋鼠爪红_undefined_undefined_1bunch</v>
       </c>
       <c r="F8" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>3</v>
-      </c>
       <c r="C9" t="str">
-        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+        <v>843_灯台_undefined_undefined_1bunch</v>
       </c>
       <c r="F9" t="str">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
       </c>
       <c r="F10" t="str">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="str">
-        <v>504_大花葱_Allium _undefined_1bunch</v>
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
       </c>
       <c r="F12" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
       </c>
       <c r="F13" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="str">
-        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
       </c>
       <c r="F14" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <v>2</v>
+      </c>
       <c r="C15" t="str">
-        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+        <v>528_五代果_pig face_undefined_1bunch</v>
       </c>
       <c r="F15" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <v>3</v>
+      </c>
       <c r="C16" t="str">
-        <v>548_白星花_tweedia white_undefined_1bunch</v>
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F16" t="str">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>4</v>
-      </c>
       <c r="C17" t="str">
-        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F17" t="str">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+        <v>125_绣球蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
       </c>
       <c r="F18" t="str">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+        <v>111_绣球紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F19" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="str">
-        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
       <c r="F20" t="str">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F21" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
       <c r="C22" t="str">
-        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
       </c>
       <c r="F22" t="str">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+        <v>469_络新妇粉_Astilbe pink_undefined_1bunch</v>
       </c>
       <c r="F23" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
       </c>
       <c r="F24" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="str">
-        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+        <v>125_绣球蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
       </c>
       <c r="F25" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="str">
+        <v>5</v>
+      </c>
       <c r="C26" t="str">
-        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F26" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" xml:space="preserve">
-      <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F27" t="str">
         <v>15</v>
       </c>
     </row>
-    <row r="28" xml:space="preserve">
-      <c r="C28" t="str" xml:space="preserve">
-        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
-blue_Trachymene Coerulea_1bunch</v>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
       <c r="F28" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
-      <c r="C29" t="str" xml:space="preserve">
-        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
-pink_Trachymene Coerulea_1bunch</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
       </c>
       <c r="F29" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
-        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+        <v>602_康乃馨白_white_undefined_20stems</v>
       </c>
       <c r="F30" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
-        <v>439_九星叶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F31" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>577_腊梅白_wax white_undefined_1bunch</v>
-      </c>
-      <c r="F32" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>5</v>
-      </c>
-      <c r="C33" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F33" t="str">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F34" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
-      </c>
-      <c r="F35" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="str">
-        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
-      </c>
-      <c r="F36" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="str">
-        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
-      </c>
-      <c r="F37" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="str">
-        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F38" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="str">
-        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F39" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="str">
-        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
-      </c>
-      <c r="F40" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>1</v>
-      </c>
-      <c r="C41" t="str">
-        <v>761_芍药奶油碗_undefined_undefined_10stems</v>
-      </c>
-      <c r="F41" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="str">
-        <v>761_芍药奶油碗_undefined_undefined_10stems</v>
-      </c>
-      <c r="F42" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="str">
-        <v>733_芍药弗莱明_Fleming_undefined_10stems</v>
-      </c>
-      <c r="F43" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>2</v>
-      </c>
-      <c r="C44" t="str">
-        <v>869_中国腊梅_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F44" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>3</v>
-      </c>
-      <c r="C45" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F45" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="str">
-        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F46" t="str">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="str">
-        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F47" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="str">
-        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F48" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="str">
-        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F49" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="str">
-        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F50" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="str">
-        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
-      </c>
-      <c r="F51" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="str">
-        <v>80_冰清玉洁_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F52" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>4</v>
-      </c>
-      <c r="C53" t="str">
-        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
-      </c>
-      <c r="F53" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="str">
-        <v>483_圣诞花_mimosa_undefined_1bunch</v>
-      </c>
-      <c r="F54" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="str">
-        <v>129_绣球初恋_Hydrangea Peacoke_Hydrangea L._1stem</v>
-      </c>
-      <c r="F55" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="str">
-        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F56" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="str">
-        <v>558_油画小菊_Helenium_undefined_1bunch</v>
-      </c>
-      <c r="F57" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" xml:space="preserve">
-      <c r="C58" t="str" xml:space="preserve">
-        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
-blue_Trachymene Coerulea_1bunch</v>
-      </c>
-      <c r="F58" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" xml:space="preserve">
-      <c r="C59" t="str" xml:space="preserve">
-        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
-pink_Trachymene Coerulea_1bunch</v>
-      </c>
-      <c r="F59" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" xml:space="preserve">
-      <c r="C60" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
-      </c>
-      <c r="F60" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="str">
-        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F61" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="str">
-        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F62" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="str">
-        <v>80_冰清玉洁_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F63" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="str">
-        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
-      </c>
-      <c r="F64" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="str">
-        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
-      </c>
-      <c r="F65" t="str">
-        <v>10</v>
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L65"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1046,10 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0198615201510555510101515201020151055510515101015101516615101055103050100510116156105515202015101010205551010</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>02015105551015202010510103040303030102010101013152015100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02015105551015202010510103040303030102010101013152015100</v>
+        <v>02015105551015202010510103040303030102010101013152015101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,12 +696,39 @@
         <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
       </c>
       <c r="F31" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>820_蝴蝶洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
         <v>1</v>
+      </c>
+      <c r="C34" t="str">
+        <v>428_南蛇藤_Celastrus orbiculatus _undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L34"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +786,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02015105551015202010510103040303030102010101013152015101</v>
+        <v>020151055510152020105101030403030301020101010131520151015101013</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-30.xlsx
@@ -788,6 +788,9 @@
       <c r="G2" t="str">
         <v>020151055510152020105101030403030301020101010131520151015101013</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
